--- a/data/trans_orig/P3A_R1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P3A_R1-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CF4A0D0-2E1F-4F17-9B99-831C1727B725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E08AF2AB-40D6-48D2-8EDC-3545BDC8EEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AA68DA28-5187-41D3-ABD2-291DD2DCF0DA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{47EEFEA3-63AF-49C8-872C-EF9491A49508}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="573">
   <si>
     <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a junto con su pareja en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -68,10 +68,10 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
-  </si>
-  <si>
-    <t>SÍ</t>
+    <t>16-24</t>
+  </si>
+  <si>
+    <t>Sí</t>
   </si>
   <si>
     <t>4,71%</t>
@@ -101,7 +101,7 @@
     <t>6,87%</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>No</t>
   </si>
   <si>
     <t>95,29%</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>28,33%</t>
@@ -191,7 +191,7 @@
     <t>75,95%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>29,75%</t>
@@ -248,7 +248,7 @@
     <t>79,98%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>20,79%</t>
@@ -305,7 +305,7 @@
     <t>88,19%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>13,42%</t>
@@ -362,61 +362,112 @@
     <t>91,38%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
   </si>
   <si>
     <t>20,91%</t>
@@ -737,808 +788,976 @@
     <t>83,87%</t>
   </si>
   <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a junto con su pareja en 2016 (Tasa respuesta: 99,8%)</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a junto con su pareja en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
   </si>
   <si>
     <t>5,04%</t>
   </si>
   <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
   </si>
   <si>
     <t>94,96%</t>
   </si>
   <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a junto con su pareja en 2016 (Tasa respuesta: 99,8%)</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a junto con su pareja en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
   </si>
   <si>
     <t>31,42%</t>
   </si>
   <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
   </si>
   <si>
     <t>68,58%</t>
   </si>
   <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
   </si>
   <si>
     <t>9,52%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
   </si>
   <si>
     <t>90,48%</t>
   </si>
   <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
   </si>
 </sst>
 </file>
@@ -1950,8 +2169,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDBE32A-2574-404D-9A75-A3755C441F83}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C96A757-A545-4D66-BB2D-5391E427C93F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2772,7 +2991,7 @@
         <v>704</v>
       </c>
       <c r="N17" s="7">
-        <v>705353</v>
+        <v>705352</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2823,7 +3042,7 @@
         <v>787</v>
       </c>
       <c r="N18" s="7">
-        <v>789682</v>
+        <v>789681</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2843,10 +3062,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="D19" s="7">
-        <v>103872</v>
+        <v>70283</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2858,10 +3077,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I19" s="7">
-        <v>54726</v>
+        <v>39909</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2873,10 +3092,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="N19" s="7">
-        <v>158598</v>
+        <v>110192</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2894,10 +3113,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>418</v>
+        <v>233</v>
       </c>
       <c r="D20" s="7">
-        <v>398594</v>
+        <v>222300</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2909,10 +3128,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>604</v>
+        <v>327</v>
       </c>
       <c r="I20" s="7">
-        <v>622116</v>
+        <v>303025</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2924,10 +3143,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>1022</v>
+        <v>560</v>
       </c>
       <c r="N20" s="7">
-        <v>1020710</v>
+        <v>525325</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2945,10 +3164,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2960,10 +3179,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2975,10 +3194,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2992,31 +3211,31 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>649</v>
+        <v>35</v>
       </c>
       <c r="D22" s="7">
-        <v>685012</v>
+        <v>33589</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>128</v>
       </c>
       <c r="H22" s="7">
-        <v>397</v>
+        <v>13</v>
       </c>
       <c r="I22" s="7">
-        <v>404648</v>
+        <v>14818</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>129</v>
@@ -3028,19 +3247,19 @@
         <v>131</v>
       </c>
       <c r="M22" s="7">
-        <v>1046</v>
+        <v>48</v>
       </c>
       <c r="N22" s="7">
-        <v>1089661</v>
+        <v>48407</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,25 +3268,25 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2564</v>
+        <v>185</v>
       </c>
       <c r="D23" s="7">
-        <v>2590650</v>
+        <v>176294</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="H23" s="7">
-        <v>2896</v>
+        <v>277</v>
       </c>
       <c r="I23" s="7">
-        <v>2969998</v>
+        <v>319090</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>137</v>
@@ -3079,19 +3298,19 @@
         <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>5460</v>
+        <v>462</v>
       </c>
       <c r="N23" s="7">
-        <v>5560646</v>
+        <v>495384</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,63 +3319,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>649</v>
+      </c>
+      <c r="D25" s="7">
+        <v>685012</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>397</v>
+      </c>
+      <c r="I25" s="7">
+        <v>404648</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1046</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1089661</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2564</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2590649</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2896</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2969997</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5460</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5560646</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3213</v>
       </c>
-      <c r="D24" s="7">
-        <v>3275662</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3275661</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3293</v>
       </c>
-      <c r="I24" s="7">
-        <v>3374646</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3374645</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6506</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6650307</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3169,8 +3544,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51129C28-5040-462B-93A8-0938266F3758}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D44DFE-F880-453D-93EA-831E92F0DC75}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3186,7 +3561,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3293,13 +3668,13 @@
         <v>28804</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>34</v>
@@ -3311,10 +3686,10 @@
         <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>62</v>
@@ -3323,13 +3698,13 @@
         <v>63289</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3719,13 @@
         <v>425342</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>387</v>
@@ -3362,10 +3737,10 @@
         <v>25</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>805</v>
@@ -3374,13 +3749,13 @@
         <v>821087</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3823,13 @@
         <v>194540</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>153</v>
@@ -3463,13 +3838,13 @@
         <v>163231</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>342</v>
@@ -3478,13 +3853,13 @@
         <v>357771</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3874,13 @@
         <v>492547</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>418</v>
@@ -3514,13 +3889,13 @@
         <v>447024</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>896</v>
@@ -3529,13 +3904,13 @@
         <v>939571</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3978,13 @@
         <v>297489</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>143</v>
@@ -3618,13 +3993,13 @@
         <v>152353</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>425</v>
@@ -3633,13 +4008,13 @@
         <v>449842</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +4029,13 @@
         <v>384374</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>523</v>
@@ -3669,28 +4044,28 @@
         <v>557495</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>892</v>
       </c>
       <c r="N11" s="7">
-        <v>941868</v>
+        <v>941869</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,7 +4107,7 @@
         <v>1317</v>
       </c>
       <c r="N12" s="7">
-        <v>1391710</v>
+        <v>1391711</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3758,13 +4133,13 @@
         <v>204556</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -3773,13 +4148,13 @@
         <v>78034</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>249</v>
@@ -3788,13 +4163,13 @@
         <v>282590</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,13 +4184,13 @@
         <v>410061</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>472</v>
@@ -3824,13 +4199,13 @@
         <v>538165</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>838</v>
@@ -3839,13 +4214,13 @@
         <v>948226</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +4288,13 @@
         <v>112967</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -3928,13 +4303,13 @@
         <v>50145</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>146</v>
@@ -3943,13 +4318,13 @@
         <v>163112</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +4339,13 @@
         <v>315403</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>362</v>
@@ -3979,13 +4354,13 @@
         <v>397655</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>652</v>
@@ -3994,13 +4369,13 @@
         <v>713058</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,49 +4437,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="D19" s="7">
-        <v>102392</v>
+        <v>69285</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="H19" s="7">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="I19" s="7">
-        <v>49883</v>
+        <v>29922</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>146</v>
+        <v>254</v>
       </c>
       <c r="M19" s="7">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="N19" s="7">
-        <v>152275</v>
+        <v>99206</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,49 +4488,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>406</v>
+        <v>215</v>
       </c>
       <c r="D20" s="7">
-        <v>457245</v>
+        <v>240501</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
-        <v>647</v>
+        <v>315</v>
       </c>
       <c r="I20" s="7">
-        <v>692093</v>
+        <v>323075</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>153</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
-        <v>1053</v>
+        <v>530</v>
       </c>
       <c r="N20" s="7">
-        <v>1149338</v>
+        <v>563577</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,10 +4539,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4179,10 +4554,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>693</v>
+        <v>343</v>
       </c>
       <c r="I21" s="7">
-        <v>741976</v>
+        <v>352997</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4194,10 +4569,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1197</v>
+        <v>625</v>
       </c>
       <c r="N21" s="7">
-        <v>1301613</v>
+        <v>662783</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4211,55 +4586,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>881</v>
+        <v>31</v>
       </c>
       <c r="D22" s="7">
-        <v>940747</v>
+        <v>33107</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
-        <v>487</v>
+        <v>18</v>
       </c>
       <c r="I22" s="7">
-        <v>528131</v>
+        <v>19962</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="M22" s="7">
-        <v>1368</v>
+        <v>49</v>
       </c>
       <c r="N22" s="7">
-        <v>1468879</v>
+        <v>53069</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,49 +4643,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2327</v>
+        <v>191</v>
       </c>
       <c r="D23" s="7">
-        <v>2484972</v>
+        <v>216744</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="H23" s="7">
-        <v>2809</v>
+        <v>332</v>
       </c>
       <c r="I23" s="7">
-        <v>3028177</v>
+        <v>369017</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
-        <v>5136</v>
+        <v>523</v>
       </c>
       <c r="N23" s="7">
-        <v>5513148</v>
+        <v>585761</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,63 +4694,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>881</v>
+      </c>
+      <c r="D25" s="7">
+        <v>940747</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H25" s="7">
+        <v>487</v>
+      </c>
+      <c r="I25" s="7">
+        <v>528131</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1368</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1468879</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2327</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2484972</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2809</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3028177</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5136</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5513148</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3208</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3425719</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3296</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3556308</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6504</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6982027</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4388,8 +4919,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB056565-AC87-47E8-8D46-4B92C996966D}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115B03FD-B5EE-4E40-B190-1CE1D411DFF7}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4405,7 +4936,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4512,13 +5043,13 @@
         <v>20559</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="H4" s="7">
         <v>43</v>
@@ -4527,13 +5058,13 @@
         <v>42572</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="M4" s="7">
         <v>63</v>
@@ -4542,13 +5073,13 @@
         <v>63131</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +5094,13 @@
         <v>397069</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="H5" s="7">
         <v>361</v>
@@ -4578,13 +5109,13 @@
         <v>353183</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="M5" s="7">
         <v>732</v>
@@ -4593,13 +5124,13 @@
         <v>750252</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +5198,13 @@
         <v>219897</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="H7" s="7">
         <v>153</v>
@@ -4682,13 +5213,13 @@
         <v>148060</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="M7" s="7">
         <v>362</v>
@@ -4697,13 +5228,13 @@
         <v>367957</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +5249,13 @@
         <v>370599</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="H8" s="7">
         <v>425</v>
@@ -4733,13 +5264,13 @@
         <v>414549</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="M8" s="7">
         <v>783</v>
@@ -4748,13 +5279,13 @@
         <v>785149</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +5353,13 @@
         <v>311085</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="H10" s="7">
         <v>220</v>
@@ -4837,13 +5368,13 @@
         <v>219529</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="M10" s="7">
         <v>513</v>
@@ -4852,13 +5383,13 @@
         <v>530613</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +5404,13 @@
         <v>355310</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="H11" s="7">
         <v>444</v>
@@ -4888,13 +5419,13 @@
         <v>440928</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="M11" s="7">
         <v>787</v>
@@ -4903,13 +5434,13 @@
         <v>796239</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +5508,13 @@
         <v>245192</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="H13" s="7">
         <v>116</v>
@@ -4992,13 +5523,13 @@
         <v>126442</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="M13" s="7">
         <v>337</v>
@@ -5010,10 +5541,10 @@
         <v>40</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5559,13 @@
         <v>398139</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="H14" s="7">
         <v>485</v>
@@ -5043,13 +5574,13 @@
         <v>521594</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="M14" s="7">
         <v>844</v>
@@ -5061,10 +5592,10 @@
         <v>48</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,13 +5663,13 @@
         <v>160973</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -5147,13 +5678,13 @@
         <v>65430</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="M16" s="7">
         <v>200</v>
@@ -5162,13 +5693,13 @@
         <v>226402</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>36</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,13 +5714,13 @@
         <v>316945</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="H17" s="7">
         <v>375</v>
@@ -5198,13 +5729,13 @@
         <v>430316</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="M17" s="7">
         <v>656</v>
@@ -5213,10 +5744,10 @@
         <v>747262</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>46</v>
@@ -5281,49 +5812,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="D19" s="7">
-        <v>139550</v>
+        <v>92914</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="H19" s="7">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I19" s="7">
-        <v>55116</v>
+        <v>38512</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="M19" s="7">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="N19" s="7">
-        <v>194665</v>
+        <v>131426</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,49 +5863,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>477</v>
+        <v>232</v>
       </c>
       <c r="D20" s="7">
-        <v>449992</v>
+        <v>240366</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
-        <v>606</v>
+        <v>316</v>
       </c>
       <c r="I20" s="7">
-        <v>721861</v>
+        <v>338296</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="M20" s="7">
-        <v>1083</v>
+        <v>548</v>
       </c>
       <c r="N20" s="7">
-        <v>1171853</v>
+        <v>578661</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,10 +5914,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>625</v>
+        <v>324</v>
       </c>
       <c r="D21" s="7">
-        <v>589542</v>
+        <v>333280</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5398,10 +5929,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>654</v>
+        <v>353</v>
       </c>
       <c r="I21" s="7">
-        <v>776977</v>
+        <v>376808</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5413,10 +5944,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1279</v>
+        <v>677</v>
       </c>
       <c r="N21" s="7">
-        <v>1366518</v>
+        <v>710087</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5430,55 +5961,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1034</v>
+        <v>56</v>
       </c>
       <c r="D22" s="7">
-        <v>1097255</v>
+        <v>46635</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="H22" s="7">
-        <v>637</v>
+        <v>11</v>
       </c>
       <c r="I22" s="7">
-        <v>657148</v>
+        <v>16604</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="M22" s="7">
-        <v>1671</v>
+        <v>67</v>
       </c>
       <c r="N22" s="7">
-        <v>1754403</v>
+        <v>63239</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,49 +6018,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2189</v>
+        <v>245</v>
       </c>
       <c r="D23" s="7">
-        <v>2288054</v>
+        <v>209627</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="H23" s="7">
-        <v>2696</v>
+        <v>290</v>
       </c>
       <c r="I23" s="7">
-        <v>2882432</v>
+        <v>383565</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="M23" s="7">
-        <v>4885</v>
+        <v>535</v>
       </c>
       <c r="N23" s="7">
-        <v>5170487</v>
+        <v>593192</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,63 +6069,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>301</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256262</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>602</v>
+      </c>
+      <c r="N24" s="7">
+        <v>656431</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1034</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1097255</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H25" s="7">
+        <v>637</v>
+      </c>
+      <c r="I25" s="7">
+        <v>657148</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1671</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1754403</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2189</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2288054</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2696</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2882432</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4885</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5170487</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3223</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3385309</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3333</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3539580</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6556</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6924890</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5607,8 +6294,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609DB271-A2A7-467A-998B-C29533BB9B29}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A778EA42-6461-4BBB-99EB-2BA0C30AFD8E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5624,7 +6311,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5728,46 +6415,46 @@
         <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>25104</v>
+        <v>25580</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>384</v>
+        <v>437</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>386</v>
+        <v>439</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
       </c>
       <c r="I4" s="7">
-        <v>27797</v>
+        <v>25592</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
       </c>
       <c r="N4" s="7">
-        <v>52901</v>
+        <v>51172</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>392</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,46 +6466,46 @@
         <v>160</v>
       </c>
       <c r="D5" s="7">
-        <v>352575</v>
+        <v>374407</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>394</v>
+        <v>446</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>395</v>
+        <v>447</v>
       </c>
       <c r="H5" s="7">
         <v>189</v>
       </c>
       <c r="I5" s="7">
-        <v>327160</v>
+        <v>287608</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>396</v>
+        <v>448</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>397</v>
+        <v>449</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>398</v>
+        <v>450</v>
       </c>
       <c r="M5" s="7">
         <v>349</v>
       </c>
       <c r="N5" s="7">
-        <v>679735</v>
+        <v>662015</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,7 +6517,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5845,7 +6532,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5860,7 +6547,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5883,46 +6570,46 @@
         <v>82</v>
       </c>
       <c r="D7" s="7">
-        <v>122101</v>
+        <v>122108</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>186</v>
+        <v>455</v>
       </c>
       <c r="H7" s="7">
         <v>120</v>
       </c>
       <c r="I7" s="7">
-        <v>119895</v>
+        <v>114006</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="M7" s="7">
         <v>202</v>
       </c>
       <c r="N7" s="7">
-        <v>241997</v>
+        <v>236114</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,46 +6621,46 @@
         <v>220</v>
       </c>
       <c r="D8" s="7">
-        <v>306295</v>
+        <v>301439</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>194</v>
+        <v>463</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="H8" s="7">
         <v>341</v>
       </c>
       <c r="I8" s="7">
-        <v>379320</v>
+        <v>398087</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="M8" s="7">
         <v>561</v>
       </c>
       <c r="N8" s="7">
-        <v>685614</v>
+        <v>699526</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,7 +6672,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6000,7 +6687,7 @@
         <v>461</v>
       </c>
       <c r="I9" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6015,7 +6702,7 @@
         <v>763</v>
       </c>
       <c r="N9" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6038,46 +6725,46 @@
         <v>233</v>
       </c>
       <c r="D10" s="7">
-        <v>244234</v>
+        <v>236897</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="H10" s="7">
         <v>308</v>
       </c>
       <c r="I10" s="7">
-        <v>215553</v>
+        <v>204035</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="M10" s="7">
         <v>541</v>
       </c>
       <c r="N10" s="7">
-        <v>459787</v>
+        <v>440932</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,46 +6776,46 @@
         <v>313</v>
       </c>
       <c r="D11" s="7">
-        <v>313018</v>
+        <v>299441</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="H11" s="7">
         <v>540</v>
       </c>
       <c r="I11" s="7">
-        <v>394894</v>
+        <v>387967</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="M11" s="7">
         <v>853</v>
       </c>
       <c r="N11" s="7">
-        <v>707912</v>
+        <v>687408</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,7 +6827,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6155,7 +6842,7 @@
         <v>848</v>
       </c>
       <c r="I12" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6170,7 +6857,7 @@
         <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>1167699</v>
+        <v>1128340</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6193,46 +6880,46 @@
         <v>226</v>
       </c>
       <c r="D13" s="7">
-        <v>224318</v>
+        <v>214530</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>347</v>
+        <v>490</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="H13" s="7">
         <v>334</v>
       </c>
       <c r="I13" s="7">
-        <v>215475</v>
+        <v>201669</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
       <c r="M13" s="7">
         <v>560</v>
       </c>
       <c r="N13" s="7">
-        <v>439793</v>
+        <v>416198</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>441</v>
+        <v>495</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>442</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,46 +6931,46 @@
         <v>439</v>
       </c>
       <c r="D14" s="7">
-        <v>499672</v>
+        <v>673256</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>356</v>
+        <v>499</v>
       </c>
       <c r="H14" s="7">
         <v>806</v>
       </c>
       <c r="I14" s="7">
-        <v>531035</v>
+        <v>510518</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="M14" s="7">
         <v>1245</v>
       </c>
       <c r="N14" s="7">
-        <v>1030707</v>
+        <v>1183775</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>451</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,7 +6982,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6310,7 +6997,7 @@
         <v>1140</v>
       </c>
       <c r="I15" s="7">
-        <v>746510</v>
+        <v>712187</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6325,7 +7012,7 @@
         <v>1805</v>
       </c>
       <c r="N15" s="7">
-        <v>1470500</v>
+        <v>1599973</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6348,46 +7035,46 @@
         <v>206</v>
       </c>
       <c r="D16" s="7">
-        <v>188564</v>
+        <v>177074</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="H16" s="7">
         <v>217</v>
       </c>
       <c r="I16" s="7">
-        <v>122737</v>
+        <v>113932</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>455</v>
+        <v>70</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
       <c r="M16" s="7">
         <v>423</v>
       </c>
       <c r="N16" s="7">
-        <v>311301</v>
+        <v>291006</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>160</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6399,46 +7086,46 @@
         <v>457</v>
       </c>
       <c r="D17" s="7">
-        <v>411593</v>
+        <v>384160</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>460</v>
+        <v>513</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>461</v>
+        <v>514</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>462</v>
+        <v>515</v>
       </c>
       <c r="H17" s="7">
         <v>785</v>
       </c>
       <c r="I17" s="7">
-        <v>474326</v>
+        <v>433973</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>463</v>
+        <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="M17" s="7">
         <v>1242</v>
       </c>
       <c r="N17" s="7">
-        <v>885919</v>
+        <v>818133</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>169</v>
+        <v>519</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,7 +7137,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6465,7 +7152,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6480,7 +7167,7 @@
         <v>1665</v>
       </c>
       <c r="N18" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6500,49 +7187,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="D19" s="7">
-        <v>164133</v>
+        <v>100159</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>52</v>
+        <v>523</v>
       </c>
       <c r="H19" s="7">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="I19" s="7">
-        <v>81764</v>
+        <v>52279</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>351</v>
+        <v>525</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="M19" s="7">
-        <v>403</v>
+        <v>267</v>
       </c>
       <c r="N19" s="7">
-        <v>245897</v>
+        <v>152438</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>472</v>
+        <v>527</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,49 +7238,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>788</v>
+        <v>415</v>
       </c>
       <c r="D20" s="7">
-        <v>532457</v>
+        <v>266907</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>62</v>
+        <v>531</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="H20" s="7">
-        <v>1542</v>
+        <v>712</v>
       </c>
       <c r="I20" s="7">
-        <v>944262</v>
+        <v>555523</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>361</v>
+        <v>535</v>
       </c>
       <c r="M20" s="7">
-        <v>2330</v>
+        <v>1127</v>
       </c>
       <c r="N20" s="7">
-        <v>1476719</v>
+        <v>822431</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>479</v>
+        <v>536</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6602,10 +7289,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1026</v>
+        <v>568</v>
       </c>
       <c r="D21" s="7">
-        <v>696590</v>
+        <v>367066</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6617,10 +7304,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1707</v>
+        <v>826</v>
       </c>
       <c r="I21" s="7">
-        <v>1026026</v>
+        <v>607802</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6632,10 +7319,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2733</v>
+        <v>1394</v>
       </c>
       <c r="N21" s="7">
-        <v>1722616</v>
+        <v>974869</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6649,55 +7336,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>997</v>
+        <v>85</v>
       </c>
       <c r="D22" s="7">
-        <v>968454</v>
+        <v>55883</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="H22" s="7">
-        <v>1162</v>
+        <v>51</v>
       </c>
       <c r="I22" s="7">
-        <v>783221</v>
+        <v>23816</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>485</v>
+        <v>14</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
       <c r="M22" s="7">
-        <v>2159</v>
+        <v>136</v>
       </c>
       <c r="N22" s="7">
-        <v>1751675</v>
+        <v>79698</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,49 +7393,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2377</v>
+        <v>373</v>
       </c>
       <c r="D23" s="7">
-        <v>2415610</v>
+        <v>226876</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
       <c r="H23" s="7">
-        <v>4203</v>
+        <v>830</v>
       </c>
       <c r="I23" s="7">
-        <v>3050997</v>
+        <v>402015</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>494</v>
+        <v>24</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
       <c r="M23" s="7">
-        <v>6580</v>
+        <v>1203</v>
       </c>
       <c r="N23" s="7">
-        <v>5466607</v>
+        <v>628892</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>499</v>
+        <v>554</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,63 +7444,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>997</v>
+      </c>
+      <c r="D25" s="7">
+        <v>932230</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1162</v>
+      </c>
+      <c r="I25" s="7">
+        <v>735328</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2159</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1667558</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2377</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2526488</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4203</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2975692</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6580</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5502180</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3374</v>
       </c>
-      <c r="D24" s="7">
-        <v>3384064</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3458718</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5365</v>
       </c>
-      <c r="I24" s="7">
-        <v>3834218</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3711020</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8739</v>
       </c>
-      <c r="N24" s="7">
-        <v>7218282</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>7169738</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
